--- a/starter-files/momentum_strategy.xlsx
+++ b/starter-files/momentum_strategy.xlsx
@@ -73,13 +73,13 @@
     <t>CZR</t>
   </si>
   <si>
+    <t>ACGL</t>
+  </si>
+  <si>
+    <t>PNR</t>
+  </si>
+  <si>
     <t>BKR</t>
-  </si>
-  <si>
-    <t>PNR</t>
-  </si>
-  <si>
-    <t>ACGL</t>
   </si>
   <si>
     <t>ADBE</t>
@@ -659,28 +659,28 @@
         <v>94.77124000000001</v>
       </c>
       <c r="E2" s="4">
-        <v>99.00596421471174</v>
+        <v>0.9900596421471174</v>
       </c>
       <c r="F2" s="4">
         <v>66.79103279278445</v>
       </c>
       <c r="G2" s="4">
-        <v>99.40357852882704</v>
+        <v>0.9940357852882704</v>
       </c>
       <c r="H2" s="4">
         <v>92.67241029372245</v>
       </c>
       <c r="I2" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4">
         <v>13.45176967700576</v>
       </c>
       <c r="K2" s="4">
-        <v>92.04771371769384</v>
+        <v>0.9204771371769384</v>
       </c>
       <c r="L2" s="3">
-        <v>97.61431411530816</v>
+        <v>0.9761431411530815</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -697,28 +697,28 @@
         <v>66.43073</v>
       </c>
       <c r="E3" s="4">
-        <v>96.81908548707754</v>
+        <v>0.9681908548707754</v>
       </c>
       <c r="F3" s="4">
         <v>39.49152242837152</v>
       </c>
       <c r="G3" s="4">
-        <v>96.81908548707754</v>
+        <v>0.9681908548707754</v>
       </c>
       <c r="H3" s="4">
         <v>32.77763616977301</v>
       </c>
       <c r="I3" s="4">
-        <v>98.01192842942346</v>
+        <v>0.9801192842942347</v>
       </c>
       <c r="J3" s="4">
         <v>11.02867400175009</v>
       </c>
       <c r="K3" s="4">
-        <v>84.69184890656064</v>
+        <v>0.8469184890656064</v>
       </c>
       <c r="L3" s="3">
-        <v>94.08548707753479</v>
+        <v>0.9408548707753479</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -735,28 +735,28 @@
         <v>77.91878</v>
       </c>
       <c r="E4" s="4">
-        <v>98.40954274353878</v>
+        <v>0.9840954274353878</v>
       </c>
       <c r="F4" s="4">
         <v>35.50257774719029</v>
       </c>
       <c r="G4" s="4">
-        <v>95.62624254473161</v>
+        <v>0.9562624254473161</v>
       </c>
       <c r="H4" s="4">
         <v>61.14942819369629</v>
       </c>
       <c r="I4" s="4">
-        <v>99.40357852882704</v>
+        <v>0.9940357852882704</v>
       </c>
       <c r="J4" s="4">
         <v>10.22012982566454</v>
       </c>
       <c r="K4" s="4">
-        <v>81.11332007952286</v>
+        <v>0.8111332007952287</v>
       </c>
       <c r="L4" s="3">
-        <v>93.63817097415507</v>
+        <v>0.9363817097415508</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -773,28 +773,28 @@
         <v>54.56861</v>
       </c>
       <c r="E5" s="4">
-        <v>94.23459244532803</v>
+        <v>0.9423459244532804</v>
       </c>
       <c r="F5" s="4">
         <v>24.49327822292912</v>
       </c>
       <c r="G5" s="4">
-        <v>88.66799204771372</v>
+        <v>0.8866799204771373</v>
       </c>
       <c r="H5" s="4">
         <v>42.59077758977934</v>
       </c>
       <c r="I5" s="4">
-        <v>98.80715705765408</v>
+        <v>0.9880715705765408</v>
       </c>
       <c r="J5" s="4">
         <v>13.30222937701846</v>
       </c>
       <c r="K5" s="4">
-        <v>91.25248508946322</v>
+        <v>0.9125248508946322</v>
       </c>
       <c r="L5" s="3">
-        <v>93.24055666003977</v>
+        <v>0.9324055666003976</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -811,28 +811,28 @@
         <v>53.277924</v>
       </c>
       <c r="E6" s="4">
-        <v>93.83697813121273</v>
+        <v>0.9383697813121273</v>
       </c>
       <c r="F6" s="4">
         <v>29.85249101234555</v>
       </c>
       <c r="G6" s="4">
-        <v>92.04771371769384</v>
+        <v>0.9204771371769384</v>
       </c>
       <c r="H6" s="4">
         <v>19.57833850976798</v>
       </c>
       <c r="I6" s="4">
-        <v>87.87276341948311</v>
+        <v>0.878727634194831</v>
       </c>
       <c r="J6" s="4">
         <v>12.54641271947329</v>
       </c>
       <c r="K6" s="4">
-        <v>90.25844930417496</v>
+        <v>0.9025844930417496</v>
       </c>
       <c r="L6" s="3">
-        <v>91.00397614314116</v>
+        <v>0.9100397614314115</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -849,28 +849,28 @@
         <v>40.59639</v>
       </c>
       <c r="E7" s="4">
-        <v>88.46918489065607</v>
+        <v>0.882703777335984</v>
       </c>
       <c r="F7" s="4">
         <v>25.2334533118707</v>
       </c>
       <c r="G7" s="4">
-        <v>89.662027833002</v>
+        <v>0.89662027833002</v>
       </c>
       <c r="H7" s="4">
         <v>29.26554111844806</v>
       </c>
       <c r="I7" s="4">
-        <v>96.22266401590458</v>
+        <v>0.9622266401590458</v>
       </c>
       <c r="J7" s="4">
         <v>12.30672652430869</v>
       </c>
       <c r="K7" s="4">
-        <v>89.06560636182903</v>
+        <v>0.8906560636182903</v>
       </c>
       <c r="L7" s="3">
-        <v>90.85487077534792</v>
+        <v>0.9080516898608351</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -887,28 +887,28 @@
         <v>36.865818</v>
       </c>
       <c r="E8" s="4">
-        <v>86.67992047713719</v>
+        <v>0.8648111332007953</v>
       </c>
       <c r="F8" s="4">
         <v>14.68017355432712</v>
       </c>
       <c r="G8" s="4">
-        <v>76.34194831013917</v>
+        <v>0.7614314115308152</v>
       </c>
       <c r="H8" s="4">
         <v>31.71343173737477</v>
       </c>
       <c r="I8" s="4">
-        <v>97.81312127236581</v>
+        <v>0.9781312127236581</v>
       </c>
       <c r="J8" s="4">
         <v>24.41809837018709</v>
       </c>
       <c r="K8" s="4">
-        <v>99.40357852882704</v>
+        <v>0.9940357852882704</v>
       </c>
       <c r="L8" s="3">
-        <v>90.0596421471173</v>
+        <v>0.8996023856858848</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -916,37 +916,37 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>35.43</v>
+        <v>82.27</v>
       </c>
       <c r="C9" s="3">
-        <v>5644</v>
+        <v>2431</v>
       </c>
       <c r="D9" s="4">
-        <v>45.204914</v>
+        <v>86.637924</v>
       </c>
       <c r="E9" s="4">
-        <v>91.65009940357854</v>
+        <v>0.9880715705765408</v>
       </c>
       <c r="F9" s="4">
-        <v>17.32362146422949</v>
+        <v>30.31838310013607</v>
       </c>
       <c r="G9" s="4">
-        <v>82.10735586481114</v>
+        <v>0.9244532803180916</v>
       </c>
       <c r="H9" s="4">
-        <v>18.15852947891046</v>
+        <v>13.46020441221204</v>
       </c>
       <c r="I9" s="4">
-        <v>86.67992047713719</v>
+        <v>0.7455268389662028</v>
       </c>
       <c r="J9" s="4">
-        <v>17.5124403099508</v>
+        <v>13.30394704794656</v>
       </c>
       <c r="K9" s="4">
-        <v>97.0178926441352</v>
+        <v>0.9145129224652088</v>
       </c>
       <c r="L9" s="3">
-        <v>89.36381709741552</v>
+        <v>0.893141153081511</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -963,28 +963,28 @@
         <v>41.32936</v>
       </c>
       <c r="E10" s="4">
-        <v>88.86679920477138</v>
+        <v>0.8866799204771373</v>
       </c>
       <c r="F10" s="4">
         <v>32.51231009100575</v>
       </c>
       <c r="G10" s="4">
-        <v>94.23459244532803</v>
+        <v>0.9423459244532804</v>
       </c>
       <c r="H10" s="4">
         <v>23.30634187770086</v>
       </c>
       <c r="I10" s="4">
-        <v>92.44532803180915</v>
+        <v>0.9244532803180916</v>
       </c>
       <c r="J10" s="4">
         <v>10.51097873011041</v>
       </c>
       <c r="K10" s="4">
-        <v>81.70974155069582</v>
+        <v>0.8170974155069582</v>
       </c>
       <c r="L10" s="3">
-        <v>89.3141153081511</v>
+        <v>0.8926441351888669</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -992,37 +992,37 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>82.27</v>
+        <v>35.43</v>
       </c>
       <c r="C11" s="3">
-        <v>2431</v>
+        <v>5644</v>
       </c>
       <c r="D11" s="4">
-        <v>86.637924</v>
+        <v>45.204914</v>
       </c>
       <c r="E11" s="4">
-        <v>98.80715705765408</v>
+        <v>0.9145129224652088</v>
       </c>
       <c r="F11" s="4">
-        <v>30.31838310013607</v>
+        <v>17.32362146422949</v>
       </c>
       <c r="G11" s="4">
-        <v>92.44532803180915</v>
+        <v>0.8190854870775348</v>
       </c>
       <c r="H11" s="4">
-        <v>13.46020441221204</v>
+        <v>18.15852947891046</v>
       </c>
       <c r="I11" s="4">
-        <v>74.55268389662028</v>
+        <v>0.8667992047713718</v>
       </c>
       <c r="J11" s="4">
-        <v>13.30394704794656</v>
+        <v>17.5124403099508</v>
       </c>
       <c r="K11" s="4">
-        <v>91.45129224652088</v>
+        <v>0.9701789264413521</v>
       </c>
       <c r="L11" s="3">
-        <v>89.3141153081511</v>
+        <v>0.8926441351888669</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1039,28 +1039,28 @@
         <v>32.725273</v>
       </c>
       <c r="E12" s="4">
-        <v>82.10735586481114</v>
+        <v>0.8190854870775348</v>
       </c>
       <c r="F12" s="4">
         <v>42.53656770486464</v>
       </c>
       <c r="G12" s="4">
-        <v>97.61431411530816</v>
+        <v>0.9761431411530817</v>
       </c>
       <c r="H12" s="4">
         <v>37.86770167955055</v>
       </c>
       <c r="I12" s="4">
-        <v>98.21073558648112</v>
+        <v>0.9821073558648112</v>
       </c>
       <c r="J12" s="4">
         <v>8.930439946321062</v>
       </c>
       <c r="K12" s="4">
-        <v>75.54671968190856</v>
+        <v>0.7554671968190856</v>
       </c>
       <c r="L12" s="3">
-        <v>88.36978131212724</v>
+        <v>0.8832007952286283</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1077,28 +1077,28 @@
         <v>197.44334</v>
       </c>
       <c r="E13" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
         <v>61.5335997602603</v>
       </c>
       <c r="G13" s="4">
-        <v>99.00596421471174</v>
+        <v>0.9900596421471174</v>
       </c>
       <c r="H13" s="4">
         <v>64.04421968230986</v>
       </c>
       <c r="I13" s="4">
-        <v>99.80119284294236</v>
+        <v>0.9980119284294235</v>
       </c>
       <c r="J13" s="4">
         <v>5.102138799366277</v>
       </c>
       <c r="K13" s="4">
-        <v>50.29821073558649</v>
+        <v>0.5029821073558649</v>
       </c>
       <c r="L13" s="3">
-        <v>87.27634194831015</v>
+        <v>0.8727634194831014</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1115,28 +1115,28 @@
         <v>62.124325</v>
       </c>
       <c r="E14" s="4">
-        <v>96.22266401590458</v>
+        <v>0.9622266401590458</v>
       </c>
       <c r="F14" s="4">
-        <v>15.77527766255787</v>
+        <v>15.77528674399248</v>
       </c>
       <c r="G14" s="4">
-        <v>78.92644135188867</v>
+        <v>0.7872763419483101</v>
       </c>
       <c r="H14" s="4">
         <v>17.93074810813454</v>
       </c>
       <c r="I14" s="4">
-        <v>85.88469184890657</v>
+        <v>0.8588469184890657</v>
       </c>
       <c r="J14" s="4">
         <v>11.91641397113178</v>
       </c>
       <c r="K14" s="4">
-        <v>87.47514910536781</v>
+        <v>0.874751491053678</v>
       </c>
       <c r="L14" s="3">
-        <v>87.12723658051691</v>
+        <v>0.8707753479125249</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1153,28 +1153,28 @@
         <v>58.530544</v>
       </c>
       <c r="E15" s="4">
-        <v>95.42743538767397</v>
+        <v>0.9542743538767396</v>
       </c>
       <c r="F15" s="4">
         <v>16.90341322523373</v>
       </c>
       <c r="G15" s="4">
-        <v>81.51093439363818</v>
+        <v>0.8131212723658052</v>
       </c>
       <c r="H15" s="4">
         <v>31.14045119540784</v>
       </c>
       <c r="I15" s="4">
-        <v>97.61431411530816</v>
+        <v>0.9761431411530817</v>
       </c>
       <c r="J15" s="4">
         <v>8.595667179775216</v>
       </c>
       <c r="K15" s="4">
-        <v>73.55864811133202</v>
+        <v>0.7355864811133201</v>
       </c>
       <c r="L15" s="3">
-        <v>87.02783300198809</v>
+        <v>0.8697813121272366</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1191,28 +1191,28 @@
         <v>61.20858</v>
       </c>
       <c r="E16" s="4">
-        <v>96.02385685884693</v>
+        <v>0.9602385685884692</v>
       </c>
       <c r="F16" s="4">
         <v>24.3608948227772</v>
       </c>
       <c r="G16" s="4">
-        <v>88.07157057654076</v>
+        <v>0.8807157057654077</v>
       </c>
       <c r="H16" s="4">
         <v>10.88267917739612</v>
       </c>
       <c r="I16" s="4">
-        <v>65.8051689860835</v>
+        <v>0.6580516898608351</v>
       </c>
       <c r="J16" s="4">
         <v>16.75293866325827</v>
       </c>
       <c r="K16" s="4">
-        <v>96.22266401590458</v>
+        <v>0.9622266401590458</v>
       </c>
       <c r="L16" s="3">
-        <v>86.53081510934395</v>
+        <v>0.8653081510934395</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1229,28 +1229,28 @@
         <v>79.79561</v>
       </c>
       <c r="E17" s="4">
-        <v>98.60834990059642</v>
+        <v>0.9860834990059643</v>
       </c>
       <c r="F17" s="4">
         <v>29.9330693344149</v>
       </c>
       <c r="G17" s="4">
-        <v>92.2465208747515</v>
+        <v>0.9224652087475149</v>
       </c>
       <c r="H17" s="4">
         <v>18.35024425267816</v>
       </c>
       <c r="I17" s="4">
-        <v>86.87872763419483</v>
+        <v>0.8687872763419483</v>
       </c>
       <c r="J17" s="4">
         <v>7.326685671068707</v>
       </c>
       <c r="K17" s="4">
-        <v>68.38966202783301</v>
+        <v>0.6838966202783301</v>
       </c>
       <c r="L17" s="3">
-        <v>86.53081510934393</v>
+        <v>0.8653081510934394</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1267,28 +1267,28 @@
         <v>48.626423</v>
       </c>
       <c r="E18" s="4">
-        <v>92.6441351888668</v>
+        <v>0.9244532803180916</v>
       </c>
       <c r="F18" s="4">
         <v>28.6367727046923</v>
       </c>
       <c r="G18" s="4">
-        <v>91.45129224652088</v>
+        <v>0.9145129224652088</v>
       </c>
       <c r="H18" s="4">
         <v>23.68671449907441</v>
       </c>
       <c r="I18" s="4">
-        <v>93.04174950298211</v>
+        <v>0.9304174950298212</v>
       </c>
       <c r="J18" s="4">
         <v>7.18039498386807</v>
       </c>
       <c r="K18" s="4">
-        <v>67.19681908548708</v>
+        <v>0.6719681908548708</v>
       </c>
       <c r="L18" s="3">
-        <v>86.08349900596421</v>
+        <v>0.8603379721669981</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1305,28 +1305,28 @@
         <v>65.89986399999999</v>
       </c>
       <c r="E19" s="4">
-        <v>96.62027833001989</v>
+        <v>0.9662027833001988</v>
       </c>
       <c r="F19" s="4">
         <v>44.04161976727659</v>
       </c>
       <c r="G19" s="4">
-        <v>98.01192842942346</v>
+        <v>0.9801192842942347</v>
       </c>
       <c r="H19" s="4">
         <v>9.632091253329818</v>
       </c>
       <c r="I19" s="4">
-        <v>61.0337972166998</v>
+        <v>0.610337972166998</v>
       </c>
       <c r="J19" s="4">
         <v>12.00730438325727</v>
       </c>
       <c r="K19" s="4">
-        <v>88.46918489065607</v>
+        <v>0.8846918489065607</v>
       </c>
       <c r="L19" s="3">
-        <v>86.03379721669981</v>
+        <v>0.860337972166998</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1343,28 +1343,28 @@
         <v>75.76419</v>
       </c>
       <c r="E20" s="4">
-        <v>97.81312127236581</v>
+        <v>0.9781312127236581</v>
       </c>
       <c r="F20" s="4">
-        <v>15.6291820249206</v>
+        <v>15.62919258453113</v>
       </c>
       <c r="G20" s="4">
-        <v>78.52882703777337</v>
+        <v>0.7833001988071571</v>
       </c>
       <c r="H20" s="4">
         <v>25.42899173815704</v>
       </c>
       <c r="I20" s="4">
-        <v>94.23459244532803</v>
+        <v>0.9423459244532804</v>
       </c>
       <c r="J20" s="4">
         <v>8.235292407978816</v>
       </c>
       <c r="K20" s="4">
-        <v>72.7634194831014</v>
+        <v>0.727634194831014</v>
       </c>
       <c r="L20" s="3">
-        <v>85.83499005964215</v>
+        <v>0.8578528827037774</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1381,28 +1381,28 @@
         <v>43.164574</v>
       </c>
       <c r="E21" s="4">
-        <v>89.662027833002</v>
+        <v>0.8946322067594434</v>
       </c>
       <c r="F21" s="4">
-        <v>22.48524371266512</v>
+        <v>22.48523210669155</v>
       </c>
       <c r="G21" s="4">
-        <v>86.67992047713719</v>
+        <v>0.8667992047713718</v>
       </c>
       <c r="H21" s="4">
         <v>11.4416547781986</v>
       </c>
       <c r="I21" s="4">
-        <v>68.19085487077535</v>
+        <v>0.6819085487077535</v>
       </c>
       <c r="J21" s="4">
         <v>19.21367920843724</v>
       </c>
       <c r="K21" s="4">
-        <v>97.81312127236581</v>
+        <v>0.9781312127236581</v>
       </c>
       <c r="L21" s="3">
-        <v>85.58648111332009</v>
+        <v>0.8553677932405568</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1419,28 +1419,28 @@
         <v>51.48797</v>
       </c>
       <c r="E22" s="4">
-        <v>93.24055666003977</v>
+        <v>0.9324055666003978</v>
       </c>
       <c r="F22" s="4">
         <v>32.00723232601059</v>
       </c>
       <c r="G22" s="4">
-        <v>93.83697813121273</v>
+        <v>0.9383697813121273</v>
       </c>
       <c r="H22" s="4">
         <v>27.45335477786259</v>
       </c>
       <c r="I22" s="4">
-        <v>95.62624254473161</v>
+        <v>0.9562624254473161</v>
       </c>
       <c r="J22" s="4">
         <v>6.180979529976264</v>
       </c>
       <c r="K22" s="4">
-        <v>59.24453280318092</v>
+        <v>0.5924453280318092</v>
       </c>
       <c r="L22" s="3">
-        <v>85.48707753479125</v>
+        <v>0.8548707753479126</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1457,28 +1457,28 @@
         <v>69.29406</v>
       </c>
       <c r="E23" s="4">
-        <v>97.21669980119285</v>
+        <v>0.9721669980119284</v>
       </c>
       <c r="F23" s="4">
         <v>33.98523020199984</v>
       </c>
       <c r="G23" s="4">
-        <v>94.83101391650101</v>
+        <v>0.9483101391650101</v>
       </c>
       <c r="H23" s="4">
         <v>17.8461500731369</v>
       </c>
       <c r="I23" s="4">
-        <v>85.28827037773361</v>
+        <v>0.8528827037773361</v>
       </c>
       <c r="J23" s="4">
         <v>6.645494240709413</v>
       </c>
       <c r="K23" s="4">
-        <v>63.61829025844931</v>
+        <v>0.6361829025844931</v>
       </c>
       <c r="L23" s="3">
-        <v>85.23856858846919</v>
+        <v>0.8523856858846919</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1495,28 +1495,28 @@
         <v>50.725616</v>
       </c>
       <c r="E24" s="4">
-        <v>92.84294234592446</v>
+        <v>0.9264413518886679</v>
       </c>
       <c r="F24" s="4">
         <v>34.85366193408812</v>
       </c>
       <c r="G24" s="4">
-        <v>95.22862823061631</v>
+        <v>0.9522862823061631</v>
       </c>
       <c r="H24" s="4">
         <v>19.79126779256324</v>
       </c>
       <c r="I24" s="4">
-        <v>88.27037773359841</v>
+        <v>0.882703777335984</v>
       </c>
       <c r="J24" s="4">
         <v>6.477614125874509</v>
       </c>
       <c r="K24" s="4">
-        <v>62.42544731610339</v>
+        <v>0.6242544731610339</v>
       </c>
       <c r="L24" s="3">
-        <v>84.69184890656064</v>
+        <v>0.8464214711729623</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1533,28 +1533,28 @@
         <v>53.246044</v>
       </c>
       <c r="E25" s="4">
-        <v>93.63817097415507</v>
+        <v>0.9363817097415508</v>
       </c>
       <c r="F25" s="4">
         <v>23.3265131463988</v>
       </c>
       <c r="G25" s="4">
-        <v>87.07753479125249</v>
+        <v>0.8707753479125249</v>
       </c>
       <c r="H25" s="4">
         <v>22.63000931262854</v>
       </c>
       <c r="I25" s="4">
-        <v>91.65009940357854</v>
+        <v>0.9165009940357853</v>
       </c>
       <c r="J25" s="4">
         <v>7.016310500699284</v>
       </c>
       <c r="K25" s="4">
-        <v>66.00397614314116</v>
+        <v>0.6600397614314116</v>
       </c>
       <c r="L25" s="3">
-        <v>84.59244532803181</v>
+        <v>0.8459244532803182</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1571,28 +1571,28 @@
         <v>28.131151</v>
       </c>
       <c r="E26" s="4">
-        <v>77.93240556660041</v>
+        <v>0.7773359840954275</v>
       </c>
       <c r="F26" s="4">
         <v>54.74164771212939</v>
       </c>
       <c r="G26" s="4">
-        <v>98.80715705765408</v>
+        <v>0.9880715705765408</v>
       </c>
       <c r="H26" s="4">
         <v>17.9773640182783</v>
       </c>
       <c r="I26" s="4">
-        <v>86.08349900596421</v>
+        <v>0.8608349900596421</v>
       </c>
       <c r="J26" s="4">
         <v>8.767051208249343</v>
       </c>
       <c r="K26" s="4">
-        <v>74.75149105367794</v>
+        <v>0.7475149105367794</v>
       </c>
       <c r="L26" s="3">
-        <v>84.39363817097416</v>
+        <v>0.8434393638170975</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1609,28 +1609,28 @@
         <v>31.624842</v>
       </c>
       <c r="E27" s="4">
-        <v>81.11332007952286</v>
+        <v>0.8091451292246522</v>
       </c>
       <c r="F27" s="4">
         <v>21.21212030653104</v>
       </c>
       <c r="G27" s="4">
-        <v>85.88469184890657</v>
+        <v>0.8588469184890657</v>
       </c>
       <c r="H27" s="4">
         <v>15.11595788045647</v>
       </c>
       <c r="I27" s="4">
-        <v>79.12524850894633</v>
+        <v>0.7912524850894633</v>
       </c>
       <c r="J27" s="4">
         <v>12.83500658409116</v>
       </c>
       <c r="K27" s="4">
-        <v>90.4572564612326</v>
+        <v>0.904572564612326</v>
       </c>
       <c r="L27" s="3">
-        <v>84.14512922465209</v>
+        <v>0.8409542743538768</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1647,28 +1647,28 @@
         <v>22.494686</v>
       </c>
       <c r="E28" s="4">
-        <v>73.35984095427436</v>
+        <v>0.731610337972167</v>
       </c>
       <c r="F28" s="4">
         <v>24.65973424384773</v>
       </c>
       <c r="G28" s="4">
-        <v>88.86679920477138</v>
+        <v>0.8886679920477139</v>
       </c>
       <c r="H28" s="4">
         <v>26.22780139254112</v>
       </c>
       <c r="I28" s="4">
-        <v>94.63220675944335</v>
+        <v>0.9463220675944335</v>
       </c>
       <c r="J28" s="4">
         <v>9.581304772704788</v>
       </c>
       <c r="K28" s="4">
-        <v>78.72763419483101</v>
+        <v>0.7872763419483101</v>
       </c>
       <c r="L28" s="3">
-        <v>83.89662027833003</v>
+        <v>0.8384691848906561</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1685,28 +1685,28 @@
         <v>160.27374</v>
       </c>
       <c r="E29" s="4">
-        <v>99.6023856858847</v>
+        <v>0.996023856858847</v>
       </c>
       <c r="F29" s="4">
-        <v>130.923334016706</v>
+        <v>130.9233156528564</v>
       </c>
       <c r="G29" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4">
         <v>63.86947436662308</v>
       </c>
       <c r="I29" s="4">
-        <v>99.6023856858847</v>
+        <v>0.996023856858847</v>
       </c>
       <c r="J29" s="4">
         <v>2.984310595674753</v>
       </c>
       <c r="K29" s="4">
-        <v>32.80318091451292</v>
+        <v>0.3280318091451292</v>
       </c>
       <c r="L29" s="3">
-        <v>83.00198807157058</v>
+        <v>0.8300198807157058</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1723,28 +1723,28 @@
         <v>76.573654</v>
       </c>
       <c r="E30" s="4">
-        <v>98.01192842942346</v>
+        <v>0.9801192842942347</v>
       </c>
       <c r="F30" s="4">
         <v>105.3884281360261</v>
       </c>
       <c r="G30" s="4">
-        <v>99.80119284294236</v>
+        <v>0.9980119284294235</v>
       </c>
       <c r="H30" s="4">
         <v>38.2865825696708</v>
       </c>
       <c r="I30" s="4">
-        <v>98.40954274353878</v>
+        <v>0.9840954274353878</v>
       </c>
       <c r="J30" s="4">
         <v>3.29261609170185</v>
       </c>
       <c r="K30" s="4">
-        <v>34.99005964214712</v>
+        <v>0.3499005964214711</v>
       </c>
       <c r="L30" s="3">
-        <v>82.80318091451292</v>
+        <v>0.8280318091451293</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1761,28 +1761,28 @@
         <v>34.450794</v>
       </c>
       <c r="E31" s="4">
-        <v>84.29423459244533</v>
+        <v>0.8409542743538768</v>
       </c>
       <c r="F31" s="4">
         <v>29.59210384531256</v>
       </c>
       <c r="G31" s="4">
-        <v>91.65009940357854</v>
+        <v>0.9165009940357853</v>
       </c>
       <c r="H31" s="4">
         <v>20.85074234633677</v>
       </c>
       <c r="I31" s="4">
-        <v>89.46322067594434</v>
+        <v>0.8946322067594434</v>
       </c>
       <c r="J31" s="4">
         <v>6.540256447055838</v>
       </c>
       <c r="K31" s="4">
-        <v>63.02186878727635</v>
+        <v>0.6302186878727635</v>
       </c>
       <c r="L31" s="3">
-        <v>82.10735586481114</v>
+        <v>0.8205765407554673</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1799,28 +1799,28 @@
         <v>43.296005</v>
       </c>
       <c r="E32" s="4">
-        <v>90.0596421471173</v>
+        <v>0.8986083499005965</v>
       </c>
       <c r="F32" s="4">
         <v>26.81632230535814</v>
       </c>
       <c r="G32" s="4">
-        <v>90.4572564612326</v>
+        <v>0.904572564612326</v>
       </c>
       <c r="H32" s="4">
         <v>15.44881014179965</v>
       </c>
       <c r="I32" s="4">
-        <v>80.1192842942346</v>
+        <v>0.8011928429423461</v>
       </c>
       <c r="J32" s="4">
         <v>7.195013692681738</v>
       </c>
       <c r="K32" s="4">
-        <v>67.59443339960239</v>
+        <v>0.6759443339960239</v>
       </c>
       <c r="L32" s="3">
-        <v>82.05765407554672</v>
+        <v>0.8200795228628232</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1837,28 +1837,28 @@
         <v>44.852673</v>
       </c>
       <c r="E33" s="4">
-        <v>91.45129224652088</v>
+        <v>0.9125248508946322</v>
       </c>
       <c r="F33" s="4">
         <v>32.41371558869008</v>
       </c>
       <c r="G33" s="4">
-        <v>94.03578528827039</v>
+        <v>0.9403578528827039</v>
       </c>
       <c r="H33" s="4">
         <v>14.0294889107977</v>
       </c>
       <c r="I33" s="4">
-        <v>76.73956262425448</v>
+        <v>0.7673956262425448</v>
       </c>
       <c r="J33" s="4">
         <v>6.986784409846503</v>
       </c>
       <c r="K33" s="4">
-        <v>65.8051689860835</v>
+        <v>0.6580516898608351</v>
       </c>
       <c r="L33" s="3">
-        <v>82.00795228628232</v>
+        <v>0.819582504970179</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1875,28 +1875,28 @@
         <v>28.636694</v>
       </c>
       <c r="E34" s="4">
-        <v>78.13121272365805</v>
+        <v>0.779324055666004</v>
       </c>
       <c r="F34" s="4">
         <v>46.3142392396508</v>
       </c>
       <c r="G34" s="4">
-        <v>98.40954274353878</v>
+        <v>0.9840954274353878</v>
       </c>
       <c r="H34" s="4">
         <v>17.00184675813747</v>
       </c>
       <c r="I34" s="4">
-        <v>84.09542743538768</v>
+        <v>0.8409542743538768</v>
       </c>
       <c r="J34" s="4">
         <v>6.924846330060445</v>
       </c>
       <c r="K34" s="4">
-        <v>65.20874751491054</v>
+        <v>0.6520874751491054</v>
       </c>
       <c r="L34" s="3">
-        <v>81.46123260437376</v>
+        <v>0.8141153081510935</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1913,28 +1913,28 @@
         <v>38.885452</v>
       </c>
       <c r="E35" s="4">
-        <v>87.27634194831015</v>
+        <v>0.8707753479125249</v>
       </c>
       <c r="F35" s="4">
         <v>18.65286124216533</v>
       </c>
       <c r="G35" s="4">
-        <v>83.30019880715706</v>
+        <v>0.8330019880715706</v>
       </c>
       <c r="H35" s="4">
         <v>16.68308628171178</v>
       </c>
       <c r="I35" s="4">
-        <v>82.90258449304176</v>
+        <v>0.8290258449304175</v>
       </c>
       <c r="J35" s="4">
         <v>7.94032513959763</v>
       </c>
       <c r="K35" s="4">
-        <v>71.17296222664017</v>
+        <v>0.7117296222664017</v>
       </c>
       <c r="L35" s="3">
-        <v>81.16302186878728</v>
+        <v>0.8111332007952287</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1951,28 +1951,28 @@
         <v>32.277275</v>
       </c>
       <c r="E36" s="4">
-        <v>81.51093439363818</v>
+        <v>0.8131212723658052</v>
       </c>
       <c r="F36" s="4">
         <v>31.54778417856301</v>
       </c>
       <c r="G36" s="4">
-        <v>93.43936381709742</v>
+        <v>0.9343936381709742</v>
       </c>
       <c r="H36" s="4">
         <v>23.04862992204017</v>
       </c>
       <c r="I36" s="4">
-        <v>92.2465208747515</v>
+        <v>0.9224652087475149</v>
       </c>
       <c r="J36" s="4">
         <v>5.846841016886316</v>
       </c>
       <c r="K36" s="4">
-        <v>56.2624254473161</v>
+        <v>0.562624254473161</v>
       </c>
       <c r="L36" s="3">
-        <v>80.8648111332008</v>
+        <v>0.8081510934393639</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1989,28 +1989,28 @@
         <v>42.976105</v>
       </c>
       <c r="E37" s="4">
-        <v>89.46322067594434</v>
+        <v>0.8926441351888669</v>
       </c>
       <c r="F37" s="4">
         <v>18.28088449239791</v>
       </c>
       <c r="G37" s="4">
-        <v>82.50497017892644</v>
+        <v>0.8250497017892644</v>
       </c>
       <c r="H37" s="4">
         <v>7.063970314288731</v>
       </c>
       <c r="I37" s="4">
-        <v>54.07554671968191</v>
+        <v>0.5407554671968191</v>
       </c>
       <c r="J37" s="4">
         <v>14.16911698146262</v>
       </c>
       <c r="K37" s="4">
-        <v>93.43936381709742</v>
+        <v>0.9343936381709742</v>
       </c>
       <c r="L37" s="3">
-        <v>79.87077534791253</v>
+        <v>0.7982107355864811</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2027,28 +2027,28 @@
         <v>14.948678</v>
       </c>
       <c r="E38" s="4">
-        <v>62.62425447316104</v>
+        <v>0.6242544731610339</v>
       </c>
       <c r="F38" s="4">
         <v>20.38931774956426</v>
       </c>
       <c r="G38" s="4">
-        <v>85.08946322067595</v>
+        <v>0.8508946322067595</v>
       </c>
       <c r="H38" s="4">
         <v>26.43687783064819</v>
       </c>
       <c r="I38" s="4">
-        <v>95.02982107355865</v>
+        <v>0.9502982107355865</v>
       </c>
       <c r="J38" s="4">
         <v>9.08347267688781</v>
       </c>
       <c r="K38" s="4">
-        <v>76.54075546719682</v>
+        <v>0.7654075546719682</v>
       </c>
       <c r="L38" s="3">
-        <v>79.82107355864811</v>
+        <v>0.797713717693837</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2065,28 +2065,28 @@
         <v>38.61593</v>
       </c>
       <c r="E39" s="4">
-        <v>87.07753479125249</v>
+        <v>0.8687872763419483</v>
       </c>
       <c r="F39" s="4">
         <v>31.68386583150643</v>
       </c>
       <c r="G39" s="4">
-        <v>93.63817097415507</v>
+        <v>0.9363817097415508</v>
       </c>
       <c r="H39" s="4">
         <v>28.79090128755365</v>
       </c>
       <c r="I39" s="4">
-        <v>95.82504970178927</v>
+        <v>0.9582504970178927</v>
       </c>
       <c r="J39" s="4">
         <v>4.250720225819794</v>
       </c>
       <c r="K39" s="4">
-        <v>42.14711729622267</v>
+        <v>0.4214711729622267</v>
       </c>
       <c r="L39" s="3">
-        <v>79.67196819085487</v>
+        <v>0.7962226640159046</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2103,28 +2103,28 @@
         <v>74.69798</v>
       </c>
       <c r="E40" s="4">
-        <v>97.61431411530816</v>
+        <v>0.9761431411530817</v>
       </c>
       <c r="F40" s="4">
         <v>53.70876357727992</v>
       </c>
       <c r="G40" s="4">
-        <v>98.60834990059642</v>
+        <v>0.9860834990059643</v>
       </c>
       <c r="H40" s="4">
         <v>22.54823009644224</v>
       </c>
       <c r="I40" s="4">
-        <v>91.45129224652088</v>
+        <v>0.9145129224652088</v>
       </c>
       <c r="J40" s="4">
         <v>2.682436823499457</v>
       </c>
       <c r="K40" s="4">
-        <v>30.41749502982108</v>
+        <v>0.3041749502982107</v>
       </c>
       <c r="L40" s="3">
-        <v>79.52286282306163</v>
+        <v>0.7952286282306164</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2141,28 +2141,28 @@
         <v>59.33329</v>
       </c>
       <c r="E41" s="4">
-        <v>95.62624254473161</v>
+        <v>0.9562624254473161</v>
       </c>
       <c r="F41" s="4">
         <v>21.7215289575792</v>
       </c>
       <c r="G41" s="4">
-        <v>86.08349900596421</v>
+        <v>0.8608349900596421</v>
       </c>
       <c r="H41" s="4">
         <v>9.088739897285079</v>
       </c>
       <c r="I41" s="4">
-        <v>59.24453280318092</v>
+        <v>0.5924453280318092</v>
       </c>
       <c r="J41" s="4">
         <v>9.161660138076803</v>
       </c>
       <c r="K41" s="4">
-        <v>76.93836978131213</v>
+        <v>0.7693836978131213</v>
       </c>
       <c r="L41" s="3">
-        <v>79.47316103379723</v>
+        <v>0.7947316103379722</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2179,28 +2179,28 @@
         <v>42.135548</v>
       </c>
       <c r="E42" s="4">
-        <v>89.26441351888668</v>
+        <v>0.8906560636182903</v>
       </c>
       <c r="F42" s="4">
         <v>24.44815763820148</v>
       </c>
       <c r="G42" s="4">
-        <v>88.46918489065607</v>
+        <v>0.8846918489065607</v>
       </c>
       <c r="H42" s="4">
         <v>29.9769909641134</v>
       </c>
       <c r="I42" s="4">
-        <v>96.81908548707754</v>
+        <v>0.9681908548707754</v>
       </c>
       <c r="J42" s="4">
         <v>4.146172981984907</v>
       </c>
       <c r="K42" s="4">
-        <v>41.1530815109344</v>
+        <v>0.411530815109344</v>
       </c>
       <c r="L42" s="3">
-        <v>78.92644135188867</v>
+        <v>0.7887673956262427</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2217,28 +2217,28 @@
         <v>13.805496</v>
       </c>
       <c r="E43" s="4">
-        <v>60.43737574552684</v>
+        <v>0.6023856858846919</v>
       </c>
       <c r="F43" s="4">
         <v>37.37132336470235</v>
       </c>
       <c r="G43" s="4">
-        <v>96.22266401590458</v>
+        <v>0.9622266401590458</v>
       </c>
       <c r="H43" s="4">
         <v>12.47944514736935</v>
       </c>
       <c r="I43" s="4">
-        <v>72.56461232604374</v>
+        <v>0.7256461232604374</v>
       </c>
       <c r="J43" s="4">
         <v>11.47985299994104</v>
       </c>
       <c r="K43" s="4">
-        <v>86.08349900596421</v>
+        <v>0.8608349900596421</v>
       </c>
       <c r="L43" s="3">
-        <v>78.82703777335985</v>
+        <v>0.7877733598409543</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2255,28 +2255,28 @@
         <v>47.67281</v>
       </c>
       <c r="E44" s="4">
-        <v>92.44532803180915</v>
+        <v>0.9224652087475149</v>
       </c>
       <c r="F44" s="4">
         <v>11.78295626465937</v>
       </c>
       <c r="G44" s="4">
-        <v>69.98011928429423</v>
+        <v>0.6978131212723659</v>
       </c>
       <c r="H44" s="4">
         <v>10.12489659012215</v>
       </c>
       <c r="I44" s="4">
-        <v>61.82902584493042</v>
+        <v>0.6182902584493042</v>
       </c>
       <c r="J44" s="4">
         <v>13.01760152558039</v>
       </c>
       <c r="K44" s="4">
-        <v>90.85487077534792</v>
+        <v>0.9085487077534792</v>
       </c>
       <c r="L44" s="3">
-        <v>78.77733598409543</v>
+        <v>0.7867793240556661</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2293,28 +2293,28 @@
         <v>28.971481</v>
       </c>
       <c r="E45" s="4">
-        <v>79.32405566600399</v>
+        <v>0.7912524850894633</v>
       </c>
       <c r="F45" s="4">
-        <v>27.40491762241196</v>
+        <v>27.40492577088168</v>
       </c>
       <c r="G45" s="4">
-        <v>90.65606361829026</v>
+        <v>0.9065606361829026</v>
       </c>
       <c r="H45" s="4">
         <v>10.75049706265742</v>
       </c>
       <c r="I45" s="4">
-        <v>64.61232604373758</v>
+        <v>0.6461232604373758</v>
       </c>
       <c r="J45" s="4">
         <v>10.06662348794829</v>
       </c>
       <c r="K45" s="4">
-        <v>80.31809145129225</v>
+        <v>0.8031809145129225</v>
       </c>
       <c r="L45" s="3">
-        <v>78.72763419483101</v>
+        <v>0.7867793240556661</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2331,28 +2331,28 @@
         <v>59.503853</v>
       </c>
       <c r="E46" s="4">
-        <v>95.82504970178927</v>
+        <v>0.9582504970178927</v>
       </c>
       <c r="F46" s="4">
         <v>37.6415957791048</v>
       </c>
       <c r="G46" s="4">
-        <v>96.42147117296223</v>
+        <v>0.9642147117296223</v>
       </c>
       <c r="H46" s="4">
         <v>14.1901310287148</v>
       </c>
       <c r="I46" s="4">
-        <v>77.33598409542743</v>
+        <v>0.7733598409542743</v>
       </c>
       <c r="J46" s="4">
         <v>4.493634945353825</v>
       </c>
       <c r="K46" s="4">
-        <v>44.93041749502982</v>
+        <v>0.4493041749502982</v>
       </c>
       <c r="L46" s="3">
-        <v>78.62823061630219</v>
+        <v>0.7862823061630219</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2369,28 +2369,28 @@
         <v>47.231697</v>
       </c>
       <c r="E47" s="4">
-        <v>92.2465208747515</v>
+        <v>0.9204771371769384</v>
       </c>
       <c r="F47" s="4">
         <v>15.14920673673115</v>
       </c>
       <c r="G47" s="4">
-        <v>77.33598409542743</v>
+        <v>0.7713717693836979</v>
       </c>
       <c r="H47" s="4">
         <v>29.06347501862013</v>
       </c>
       <c r="I47" s="4">
-        <v>96.02385685884693</v>
+        <v>0.9602385685884692</v>
       </c>
       <c r="J47" s="4">
         <v>4.953702203367335</v>
       </c>
       <c r="K47" s="4">
-        <v>48.70775347912525</v>
+        <v>0.4870775347912525</v>
       </c>
       <c r="L47" s="3">
-        <v>78.57852882703777</v>
+        <v>0.7847912524850895</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2407,28 +2407,28 @@
         <v>34.481857</v>
       </c>
       <c r="E48" s="4">
-        <v>84.49304174950299</v>
+        <v>0.8429423459244534</v>
       </c>
       <c r="F48" s="4">
         <v>14.5469043422861</v>
       </c>
       <c r="G48" s="4">
-        <v>75.74552683896621</v>
+        <v>0.7554671968190856</v>
       </c>
       <c r="H48" s="4">
         <v>10.86060942967742</v>
       </c>
       <c r="I48" s="4">
-        <v>65.60636182902584</v>
+        <v>0.6560636182902584</v>
       </c>
       <c r="J48" s="4">
         <v>11.77398608406139</v>
       </c>
       <c r="K48" s="4">
-        <v>87.07753479125249</v>
+        <v>0.8707753479125249</v>
       </c>
       <c r="L48" s="3">
-        <v>78.23061630218689</v>
+        <v>0.7813121272365806</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2445,28 +2445,28 @@
         <v>19.563316</v>
       </c>
       <c r="E49" s="4">
-        <v>69.18489065606363</v>
+        <v>0.6898608349900597</v>
       </c>
       <c r="F49" s="4">
         <v>14.75571330992059</v>
       </c>
       <c r="G49" s="4">
-        <v>76.73956262425448</v>
+        <v>0.7654075546719682</v>
       </c>
       <c r="H49" s="4">
         <v>22.06242372950415</v>
       </c>
       <c r="I49" s="4">
-        <v>90.65606361829026</v>
+        <v>0.9065606361829026</v>
       </c>
       <c r="J49" s="4">
         <v>9.027925817066828</v>
       </c>
       <c r="K49" s="4">
-        <v>76.14314115308152</v>
+        <v>0.7614314115308152</v>
       </c>
       <c r="L49" s="3">
-        <v>78.18091451292247</v>
+        <v>0.7808151093439364</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2483,28 +2483,28 @@
         <v>11.979055</v>
       </c>
       <c r="E50" s="4">
-        <v>58.25049701789265</v>
+        <v>0.5805168986083499</v>
       </c>
       <c r="F50" s="4">
         <v>21.20077894803586</v>
       </c>
       <c r="G50" s="4">
-        <v>85.68588469184891</v>
+        <v>0.8568588469184891</v>
       </c>
       <c r="H50" s="4">
         <v>20.57827208040139</v>
       </c>
       <c r="I50" s="4">
-        <v>88.66799204771372</v>
+        <v>0.8866799204771373</v>
       </c>
       <c r="J50" s="4">
         <v>9.878907043448697</v>
       </c>
       <c r="K50" s="4">
-        <v>79.52286282306163</v>
+        <v>0.7952286282306162</v>
       </c>
       <c r="L50" s="3">
-        <v>78.03180914512923</v>
+        <v>0.7798210735586482</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2521,28 +2521,28 @@
         <v>4.9869895</v>
       </c>
       <c r="E51" s="4">
-        <v>45.32803180914513</v>
+        <v>0.4512922465208748</v>
       </c>
       <c r="F51" s="4">
         <v>27.52171875766054</v>
       </c>
       <c r="G51" s="4">
-        <v>90.85487077534792</v>
+        <v>0.9085487077534792</v>
       </c>
       <c r="H51" s="4">
         <v>44.1071439519221</v>
       </c>
       <c r="I51" s="4">
-        <v>99.00596421471174</v>
+        <v>0.9900596421471174</v>
       </c>
       <c r="J51" s="4">
         <v>9.054046182235641</v>
       </c>
       <c r="K51" s="4">
-        <v>76.34194831013917</v>
+        <v>0.7634194831013917</v>
       </c>
       <c r="L51" s="3">
-        <v>77.88270377733599</v>
+        <v>0.7783300198807158</v>
       </c>
     </row>
   </sheetData>
